--- a/cridentiels.xlsx
+++ b/cridentiels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProjects\Billing_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31706E-53B5-4A28-B7A5-7B769E647BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FBBA9F-2454-4148-A62A-2E2BE6B74832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
